--- a/odkx/app/config/tables/ento_mosquito_net/forms/ento_mosquito_net/ento_mosquito_net.xlsx
+++ b/odkx/app/config/tables/ento_mosquito_net/forms/ento_mosquito_net/ento_mosquito_net.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -339,7 +339,7 @@
     <t xml:space="preserve">B3b. How long ago did you obtain the net?</t>
   </si>
   <si>
-    <t xml:space="preserve">qb3b.followup</t>
+    <t xml:space="preserve">qb3b_followup</t>
   </si>
   <si>
     <t xml:space="preserve">B3b. How did you obtain the net?</t>
@@ -481,7 +481,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.6"/>
@@ -523,13 +523,13 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.83"/>
@@ -664,7 +664,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="21.95"/>
@@ -846,7 +846,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.75"/>
@@ -927,7 +927,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.47"/>
@@ -1074,11 +1074,11 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="38.88"/>
